--- a/output/excel_words_frequency.xlsx
+++ b/output/excel_words_frequency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Verena</t>
+          <t>Andre­as</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,12 +1368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mayrhofer</t>
+          <t>Ste­fan</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1383,447 +1383,447 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Theme</t>
+          <t>Mar­tin</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Responsive</t>
+          <t>Quecke</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Menuworkcontact</t>
+          <t>Chris­ti­ne</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>infoCV</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>objectWhy</t>
+          <t>Gün­ther</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>crack</t>
+          <t>Mar­kus</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://verenamayrhofer.at/</t>
+          <t>https://qujochoe.org/about/</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>The­re­sa</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Verena</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Androsch</t>
+          <t>Mayrhofer</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Linz</t>
+          <t>Theme</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Österreich</t>
+          <t>Responsive</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hörstadt</t>
+          <t>Menuworkcontact</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Akustik</t>
+          <t>infoCV</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Stadt</t>
+          <t>objectWhy</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wien</t>
+          <t>crack</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kirche</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://hoerstadt.at/uber-uns/</t>
+          <t>https://verenamayrhofer.at/</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ÖGB</t>
+          <t>photo</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kulturverein</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mailchimp</t>
+          <t>Androsch</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hyperdog</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Österreich</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Curb</t>
+          <t>Hörstadt</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Loser</t>
+          <t>Akustik</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ozymandias</t>
+          <t>Stadt</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ChangoNEWS</t>
+          <t>Wien</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LETTERDein</t>
+          <t>Kirche</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.schlot.info/</t>
+          <t>http://hoerstadt.at/uber-uns/</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ÖGB</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Kulturverein</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LeischFilm</t>
+          <t>Mailchimp</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1833,27 +1833,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Hyperdog</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Leisch</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1863,12 +1863,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LeischTina</t>
+          <t>Curb</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1878,12 +1878,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TheaterarbeiterinMenüSpringe</t>
+          <t>Loser</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1893,12 +1893,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>InhaltTina</t>
+          <t>Ozymandias</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1908,12 +1908,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Theaterarbeiterin</t>
+          <t>ChangoNEWS</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WienGestaltet</t>
+          <t>LETTERDein</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
+          <t>https://www.schlot.info/</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Theaterexperimente</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,172 +1953,172 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KunstRaum</t>
+          <t>LeischFilm</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Goethestrasse</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Linz</t>
+          <t>Leisch</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>xtd</t>
+          <t>LeischTina</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>TheaterarbeiterinMenüSpringe</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>InhaltTina</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>spaces</t>
+          <t>Theaterarbeiterin</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>projects</t>
+          <t>WienGestaltet</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/en/how-we-are/</t>
+          <t>https://tinaleisch.at/index.php/tinaleisch/</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>Theaterexperimente</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Kunst</t>
+          <t>art</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,138 +2172,138 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Raum</t>
+          <t>space</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Blaimschein</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Rathmayr</t>
+          <t>spaces</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ausstellungen</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://kunstraum.at/wer-wir-sind/</t>
+          <t>https://kunstraum.at/en/how-we-are/</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sprichcode</t>
+          <t>Kunst</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Februar</t>
+          <t>KunstRaum</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KUVA</t>
+          <t>Goethestrasse</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2313,12 +2313,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Galerie</t>
+          <t>xtd</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2328,12 +2328,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Turm</t>
+          <t>Raum</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2343,27 +2343,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Blaimschein</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Michaela</t>
+          <t>Rathmayr</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2373,147 +2373,147 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Stadtmuseum</t>
+          <t>Ausstellungen</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.kuva.at/</t>
+          <t>https://kunstraum.at/wer-wir-sind/</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>screening</t>
+          <t>Sprichcode</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>Februar</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>KUVA</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>curated</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>solo</t>
+          <t>Galerie</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>Turm</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NEVERNEVERLAND</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>Michaela</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2523,12 +2523,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fonds</t>
+          <t>Stadtmuseum</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2538,165 +2538,315 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://jmyyri.com/recliners</t>
+          <t>https://www.kuva.at/</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jaakko</t>
+          <t>ANTON</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kraher</t>
+          <t>ART</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Algorithmic</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Justice</t>
+          <t>curated</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Space</t>
+          <t>solo</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>show</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>NEVERNEVERLAND</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Artificial</t>
+          <t>Art</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.anna-kraher.de/#about</t>
+          <t>https://jmyyri.com/recliners</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Intelligence</t>
+          <t>Fonds</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>https://jmyyri.com/recliners</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Jaakko</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>https://www.anna-kraher.de/#about</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Kraher</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Algorithmic</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Justice</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Space</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Artificial</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de/#about</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>Biometrics</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="C161" t="n">
         <v>2</v>
       </c>
     </row>
